--- a/src/filehandling/TestData.xlsx
+++ b/src/filehandling/TestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaNovember25\LearnAutomation\src\filehandling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A236BB-FDAA-4F22-A91A-E3774C41C0BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98C26B2-ADBB-453F-81C4-5D394BA4546D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22764" windowHeight="7608" activeTab="7" xr2:uid="{A0F8B5EC-6313-4ECD-A3D8-72BFA132BCE4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22764" windowHeight="7608" activeTab="8" xr2:uid="{A0F8B5EC-6313-4ECD-A3D8-72BFA132BCE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="TestSheet" sheetId="7" r:id="rId7"/>
     <sheet name="Student" sheetId="8" r:id="rId8"/>
-    <sheet name="EmployeeData" r:id="rId12" sheetId="9"/>
+    <sheet name="EmployeeData" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -150,7 +150,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,71 +530,71 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>886868</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s" s="0">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s" s="0">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" s="0">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -675,7 +674,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -688,13 +687,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93F16F-E8C6-4F06-BB8D-3FEA2AB1BD8D}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" style="4" width="15.21875"/>
+    <col min="4" max="4" width="15.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -802,84 +801,89 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s" s="0">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="n" s="0">
+      <c r="C2">
         <v>55000.75</v>
       </c>
-      <c r="D2" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s" s="0">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>62000.0</v>
-      </c>
-      <c r="D3" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="0">
+      <c r="C3">
+        <v>62000</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="n" s="0">
+      <c r="C4">
         <v>72000.5</v>
       </c>
-      <c r="D4" t="b" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s" s="0">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="n" s="0">
+      <c r="C5">
         <v>48000.25</v>
       </c>
-      <c r="D5" t="b" s="0">
+      <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>